--- a/output.xlsx
+++ b/output.xlsx
@@ -397,43 +397,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="30.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="30.83203125" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="30.83203125" customWidth="1"/>
     <col min="9" max="9" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>รหัสอ้างอิง</v>
+      </c>
+      <c r="B1" t="str">
         <v>วันเวลาที่บันทึก</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>วันที่โอน</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>เวลาที่โอน</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>ผู้ส่ง</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>ผู้รับ</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>ราคา</v>
-      </c>
-      <c r="G1" t="str">
-        <v>รหัสอ้างอิง</v>
       </c>
       <c r="H1" t="str">
         <v>หมายเหตุ</v>
@@ -444,74 +444,74 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>202401131jilUe0cpcrxvtJ4u</v>
+        <v>2023120418281298</v>
       </c>
       <c r="B2" t="str">
-        <v>19 มกราคม 2567 เวลา 09:02:20</v>
+        <v>25 มกราคม 2567 เวลา 03:43:05</v>
       </c>
       <c r="C2" t="str">
-        <v>13 มกราคม 2567</v>
+        <v>4 ธันวาคม 2566</v>
       </c>
       <c r="D2" t="str">
-        <v>12:02:31</v>
+        <v>17:59:24</v>
       </c>
       <c r="E2" t="str">
-        <v>นาย สมาน ชัยวิรัตน์</v>
+        <v>ภาณุพงศ์ ชัยวิรัตน์</v>
       </c>
       <c r="F2" t="str">
-        <v>ภาณุพงศ์ ชัยวิรัตน์</v>
+        <v>นางสาว ทิพย์วารี ศรีเจริญตา</v>
       </c>
       <c r="G2">
-        <v>2000</v>
+        <v>60</v>
       </c>
       <c r="H2" t="str">
         <v/>
       </c>
       <c r="I2" t="str">
-        <v>https://storage.googleapis.com/test01-78b71.appspot.com/Images/image_491276515854516466.png?GoogleAccessId=firebase-adminsdk-yik6i%40test01-78b71.iam.gserviceaccount.com&amp;Expires=1893456000&amp;Signature=BuetzGkHS5P35Z7jSzG4bz7WrzMKnJXAWofsE2RkJh2f8zEWwh%2FTXk%2BJQsu0PRhDbsbYuohN1GRMSJZIDMh%2BXpQLDVbQoNFEAcjGBUvAIti2vdfb%2B2fi%2Fm27eOtJ%2BKdDB62sNnB0gkiVN6KAgRu5cGS3De8f7VTn8jg6Y2eTBxk5y9IoymIKKYmuvw6rtAgjyD7QDJYoQda4MMlTIn10QaGI5NPb3ac7qkwU8ssXgrld3oVhT5CuQ%2BSTfXoL5omUea9IfHq8JdILO41XgiIlloMjHjl7DbFQWt%2BIBG6S7a54KCelkLlqN5Ps4d47GwDed86zKjCX6OwTYmPZBgEKGA%3D%3D</v>
+        <v>https://storage.googleapis.com/test01-78b71.appspot.com/Images/image_492114126517043417.png?GoogleAccessId=firebase-adminsdk-yik6i%40test01-78b71.iam.gserviceaccount.com&amp;Expires=1893456000&amp;Signature=IE6LpXKcMj0Djal1GLXTzmMYQbWKPOLiTmH6EwubapWse4Q2BrkpxTUpS62rH6al%2FGEKOXsZwGkSwiXcJGU%2FQSHf88TzHr5VsmJ6Rq1Sa3w%2BBpROOyI%2Bdu3mTNNSUROVeb41AImyNV9ZZwA3ZJwQYFPD%2B%2BBMorl%2B44vWEq29e8LzoYZaUMJxSyHoWYDfT3yTPAFGsDjbqszgOdQElYo8d5gtofYCypN3C9lFydl%2F6N2IQAxpZhO7FoD%2FFnNz6R%2BYn%2Fi%2FMzX55O7kylqM2c3uqiXdEGQPrs79vTqlTxvOA5CJno%2BHTr%2BxqO%2BZMhJjjpRjmFFyhEkeP%2B4P4n6kDlfs3A%3D%3D</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>202401159078801</v>
+        <v>2023120964993383</v>
       </c>
       <c r="B3" t="str">
-        <v>19 มกราคม 2567 เวลา 09:02:13</v>
+        <v>24 มกราคม 2567 เวลา 08:14:48</v>
       </c>
       <c r="C3" t="str">
-        <v>15 มกราคม 2567</v>
+        <v>9 ธันวาคม 2566</v>
       </c>
       <c r="D3" t="str">
-        <v>08:58:53</v>
+        <v>18:34:51</v>
       </c>
       <c r="E3" t="str">
-        <v>ภาณุพงศ์ ชัยวิรัตน์</v>
+        <v>นาย โตมร คำทอง</v>
       </c>
       <c r="F3" t="str">
-        <v>นาย ภาณุพงศ์ ชัยวิรัตน์</v>
+        <v>นางสาว ธัญวรัตน์ ศักดิ์เจริญชัยกุล</v>
       </c>
       <c r="G3">
-        <v>49.18</v>
+        <v>40</v>
       </c>
       <c r="H3" t="str">
         <v/>
       </c>
       <c r="I3" t="str">
-        <v>https://storage.googleapis.com/test01-78b71.appspot.com/Images/image_491276514009284693.png?GoogleAccessId=firebase-adminsdk-yik6i%40test01-78b71.iam.gserviceaccount.com&amp;Expires=1893456000&amp;Signature=PoAtWpIyDHzLT%2FqpjFAooNGNXF8tBwMyEonahnuv6T8gGSElNxBb6jJWnJRwWSQmv4xLFRY1hFFTSy3vQ2aCW9V6%2B2sNcHVIp2QTuKhi%2F4JDMFPTEhUEYZh5dtAsx%2FroliBK8tFmu%2Bf0o3Mbztmd4C3ydMe%2FjtMZPfPR5AgiSgRRw1CdKKDhrAwmSumlXiMW83JsqbbjY5DwaSSsToBMXYZgrn%2BmjnhEIT9mcvaTiAku27IIwegKJEMYfDGSNau8icoxVzLsBLbJVNaLGTpSLE%2FgnxW2nM2LOWU%2BmD5VQAxroib8VcPvNC%2FXMSjct7n3KVniZPU4Up2JOHJ%2BebA6Lw%3D%3D</v>
+        <v>https://storage.googleapis.com/test01-78b71.appspot.com/Images/image_491996517410799879.png?GoogleAccessId=firebase-adminsdk-yik6i%40test01-78b71.iam.gserviceaccount.com&amp;Expires=1893456000&amp;Signature=dbkc6PgCCCUE1N4q0i9MhDbXnlrfozV8z8okJm0mTyXWaiRF4x0ZweFVYOrAFDS4LGeBcmPf%2BOCEE%2Bm8OHWibaj3kwqL7%2BXCUlITYM1EN5LQMRd4ul1RRlOlVLxHjGgEG5t6MG19MQJ131a7WAacIZ6CDw868IQj06qemvvNxOBccIakAxGaAuIfuvT3g6D66CfTSeHk3cpvO6Edn3KujbaAgG7IL8GYltwaGkzVKIgyqxL%2BTuxA4mg%2BVP2Cw%2FQAGulukgS2FNxqbjVkBwKW8dRpdNFluO%2BFEUVvQV2c63Vf9CDUISLluf5AveUzNXZ4Us6SF6AI4WOLF1%2BAJ2cAzQ%3D%3D</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>A348be46811404c81</v>
+        <v>2023121492955305</v>
       </c>
       <c r="B4" t="str">
-        <v>19 มกราคม 2567 เวลา 09:02:14</v>
+        <v>25 มกราคม 2567 เวลา 03:42:32</v>
       </c>
       <c r="C4" t="str">
-        <v>13 มกราคม 2567</v>
+        <v>14 ธันวาคม 2566</v>
       </c>
       <c r="D4" t="str">
-        <v>18:36:04</v>
+        <v>13:02:13</v>
       </c>
       <c r="E4" t="str">
         <v>ภาณุพงศ์ ชัยวิรัตน์</v>
@@ -526,12 +526,99 @@
         <v/>
       </c>
       <c r="I4" t="str">
-        <v>https://storage.googleapis.com/test01-78b71.appspot.com/Images/image_491276514881438171.png?GoogleAccessId=firebase-adminsdk-yik6i%40test01-78b71.iam.gserviceaccount.com&amp;Expires=1893456000&amp;Signature=AJ%2F3Z%2FzKExMjnkfA8xYP11SZouwPVuDxh%2FJbAtGk2qxTfFCL2qA4DLOd5KOh%2F9%2F1VD%2FLyUHsDM%2FYRYGeuTRv3OZEI9HlAG7f3h7pp%2Fymk8PxfhRsKVfXwY%2Byud%2B5eR7Bkqxv0CmVgZPh9%2F0eGZR6oS4vXTfWsxxuVQb9e7WBrKK4LmhUYHYfF8l4gNfrW3E7XXwVogG1j%2BK%2B1AuWPn1sJgc3mz29FRmnpufxG%2BMfnYioK2fElKn%2FURD1s5EfoNOL7EaWyq0jQEOql79mGv0h6RNzd1FqmGy99emRl%2F7SDVyGajocYxrzFBrdSXfU2n%2Bjz0qphHgs0OfXvhpbeLGcMw%3D%3D</v>
+        <v>https://storage.googleapis.com/test01-78b71.appspot.com/Images/image_492114070967943252.png?GoogleAccessId=firebase-adminsdk-yik6i%40test01-78b71.iam.gserviceaccount.com&amp;Expires=1893456000&amp;Signature=MeOMsK%2BCvhc7YtYWDbgM66lgORIa5Ridl9R7KF2ilnMyhp%2BL8kcHCRwas2yVM%2B8XDOynKK8DhY8TtVA6ToCrPNN7CniToT2xG%2BvrqUHFc4ySbjmN2axAIma4k5md9UHhrfQ1FsxzObFbZ%2Bug9lJkwjqpHcLNuom5wlwB%2FDXNldD1lufmjKiOCxKtt8rzsy%2FFeLxMkWCD1FIQXPvYMgvArESkpXe27vI42C%2Fs9o6bCjr8S8h4894wHRTsNiA1oBh7Wt5oSNJ6tCqYxTu9oh2w39%2BA3%2BWkoqqYa3CvnWQeHUG3GlmV5LZeOySf0pycQmUUDQS9QXvuMQQQ0mbGCxEO0Q%3D%3D</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2023122197672455</v>
+      </c>
+      <c r="B5" t="str">
+        <v>25 มกราคม 2567 เวลา 03:41:58</v>
+      </c>
+      <c r="C5" t="str">
+        <v>21 ธันวาคม 2566</v>
+      </c>
+      <c r="D5" t="str">
+        <v>16:44:45</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Phanuphong Chaiwirat</v>
+      </c>
+      <c r="F5" t="str">
+        <v>บริษัท 12โก (ไทยแลนด์) จำกัด</v>
+      </c>
+      <c r="G5">
+        <v>857.39</v>
+      </c>
+      <c r="H5" t="str">
+        <v>ชื่อผู้ส่งที่ได้รับเป็นภาษาอังกฤษจึงไม่ตรงกับสลิป</v>
+      </c>
+      <c r="I5" t="str">
+        <v>https://storage.googleapis.com/test01-78b71.appspot.com/Images/image_492114013153657282.png?GoogleAccessId=firebase-adminsdk-yik6i%40test01-78b71.iam.gserviceaccount.com&amp;Expires=1893456000&amp;Signature=oNq%2Fhryjcd5P1kpsNT3ESWD7DiogMo4cPaxJvZ%2F5O2J8SU89w3MCWpbqXbnpaUQKgdlHY5RegfW%2BXeDxOL3SlVrmkHKl9jL9AVcBJNKwBl7XqPQbcoBKUjBbGiG8tvi9SjVuFrFLIWgljeKDgWIZ1CVTO8AtCNPP1mtX2o3tld0utHrSla0dCkYCW7MPMrG%2F577f%2FJTK4jLnhODvGDn8pg3r%2BGjIDUjVDyYfB72Q6SpMXAR%2F%2F65qyBdat6xykg0L6rNZht85UlSDSU4mJDMhOxSFRlVq4MaIoMYvKmW2P0QpezRDQG%2BqjqgLhwwbj0Vvg4mx%2FXyIsJ07ki5VqrAXDw%3D%3D</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2023122227206579</v>
+      </c>
+      <c r="B6" t="str">
+        <v>23 มกราคม 2567 เวลา 13:32:48</v>
+      </c>
+      <c r="C6" t="str">
+        <v>22 ธันวาคม 2566</v>
+      </c>
+      <c r="D6" t="str">
+        <v>19:23:44</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Phanuphong Chaiwirat</v>
+      </c>
+      <c r="F6" t="str">
+        <v>บริษัท 12โก (ไทยแลนด์) จำกัด</v>
+      </c>
+      <c r="G6">
+        <v>398.39</v>
+      </c>
+      <c r="H6" t="str">
+        <v>ชื่อผู้ส่งที่ได้รับเป็นภาษาอังกฤษจึงไม่ตรงกับสลิป</v>
+      </c>
+      <c r="I6" t="str">
+        <v>https://storage.googleapis.com/test01-78b71.appspot.com/Images/image_491841301805793479.png?GoogleAccessId=firebase-adminsdk-yik6i%40test01-78b71.iam.gserviceaccount.com&amp;Expires=1893430800&amp;Signature=ihg55Pi09kCjP1YLXKWb%2BEIJhNQAOOMRq%2Bw6lD5ro0aKk6%2BaFqJuH27I1w6btsyICHHBySAfL6FhnPpJACNpsTs4gaZIZlbC4z3u21MB7dR7zUhCQKrf%2FJK85DK0IxKqqBE2%2B0JVvzpwAp8OCktVGR5XXGeiD0YiGyX9D4%2FeKx6wosKW%2FyZHzJoc5UJs1PaOJv5w2ekSFr8laD%2FlUvgeVv%2BBPEdXp0nbMWpkQH8v%2FL68kzH7S%2FSoHcaweS7%2B1fiQV8v9pleDjcdchAgPxPJGrMYJGk71M2MmU9n1FaDSCFChTHelWtaxPFodZLpXsLxyfSzs07YE0fDZ5IXQ%2BvvBEQ%3D%3D</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2023122347877168</v>
+      </c>
+      <c r="B7" t="str">
+        <v>23 มกราคม 2567 เวลา 13:32:57</v>
+      </c>
+      <c r="C7" t="str">
+        <v>23 ธันวาคม 2566</v>
+      </c>
+      <c r="D7" t="str">
+        <v>18:00:37</v>
+      </c>
+      <c r="E7" t="str">
+        <v>ภาณุพงศ์ ชัยวิรัตน์</v>
+      </c>
+      <c r="F7" t="str">
+        <v>นาย โตมร คำทอง</v>
+      </c>
+      <c r="G7">
+        <v>2000</v>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v>https://storage.googleapis.com/test01-78b71.appspot.com/Images/image_491841301068382708.png?GoogleAccessId=firebase-adminsdk-yik6i%40test01-78b71.iam.gserviceaccount.com&amp;Expires=1893430800&amp;Signature=eqxlQ0nbMBv9LFbG%2FY3edsZITkIvVqycKu1LwIjL7FxmPnRTDx7fzqow5LRQ3Qoxnz2uHJn8f746WFj9cYYym1c%2B7qgS%2FblmElJ6z00DHfuz2fSQEJvZ54mWBl9nVUkemmZTtcdwHVyWzdqywuPQrpj%2F6iPyP5XQ0FIcu%2BmdvpM5Mwm%2FSyndG6SJtu0ke%2FOejDMrXbSATlNX0t8NamLxbxI7K2gj29eWyWxusfGsO9m0jzBtI%2FQAKtOA6PVJKG79gXIrpi6zxUc0NIHkM9mViELGCkEGGneL9N%2FtfXfK4igdC6aBE41Zmulewr6srzm6wIDSkNFmvRp5dJ4dSVN8dQ%3D%3D</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,183 +442,9 @@
         <v>File URL</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2023120418281298</v>
-      </c>
-      <c r="B2" t="str">
-        <v>25 มกราคม 2567 เวลา 03:43:05</v>
-      </c>
-      <c r="C2" t="str">
-        <v>4 ธันวาคม 2566</v>
-      </c>
-      <c r="D2" t="str">
-        <v>17:59:24</v>
-      </c>
-      <c r="E2" t="str">
-        <v>ภาณุพงศ์ ชัยวิรัตน์</v>
-      </c>
-      <c r="F2" t="str">
-        <v>นางสาว ทิพย์วารี ศรีเจริญตา</v>
-      </c>
-      <c r="G2">
-        <v>60</v>
-      </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <v>https://storage.googleapis.com/test01-78b71.appspot.com/Images/image_492114126517043417.png?GoogleAccessId=firebase-adminsdk-yik6i%40test01-78b71.iam.gserviceaccount.com&amp;Expires=1893456000&amp;Signature=IE6LpXKcMj0Djal1GLXTzmMYQbWKPOLiTmH6EwubapWse4Q2BrkpxTUpS62rH6al%2FGEKOXsZwGkSwiXcJGU%2FQSHf88TzHr5VsmJ6Rq1Sa3w%2BBpROOyI%2Bdu3mTNNSUROVeb41AImyNV9ZZwA3ZJwQYFPD%2B%2BBMorl%2B44vWEq29e8LzoYZaUMJxSyHoWYDfT3yTPAFGsDjbqszgOdQElYo8d5gtofYCypN3C9lFydl%2F6N2IQAxpZhO7FoD%2FFnNz6R%2BYn%2Fi%2FMzX55O7kylqM2c3uqiXdEGQPrs79vTqlTxvOA5CJno%2BHTr%2BxqO%2BZMhJjjpRjmFFyhEkeP%2B4P4n6kDlfs3A%3D%3D</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2023120964993383</v>
-      </c>
-      <c r="B3" t="str">
-        <v>24 มกราคม 2567 เวลา 08:14:48</v>
-      </c>
-      <c r="C3" t="str">
-        <v>9 ธันวาคม 2566</v>
-      </c>
-      <c r="D3" t="str">
-        <v>18:34:51</v>
-      </c>
-      <c r="E3" t="str">
-        <v>นาย โตมร คำทอง</v>
-      </c>
-      <c r="F3" t="str">
-        <v>นางสาว ธัญวรัตน์ ศักดิ์เจริญชัยกุล</v>
-      </c>
-      <c r="G3">
-        <v>40</v>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <v>https://storage.googleapis.com/test01-78b71.appspot.com/Images/image_491996517410799879.png?GoogleAccessId=firebase-adminsdk-yik6i%40test01-78b71.iam.gserviceaccount.com&amp;Expires=1893456000&amp;Signature=dbkc6PgCCCUE1N4q0i9MhDbXnlrfozV8z8okJm0mTyXWaiRF4x0ZweFVYOrAFDS4LGeBcmPf%2BOCEE%2Bm8OHWibaj3kwqL7%2BXCUlITYM1EN5LQMRd4ul1RRlOlVLxHjGgEG5t6MG19MQJ131a7WAacIZ6CDw868IQj06qemvvNxOBccIakAxGaAuIfuvT3g6D66CfTSeHk3cpvO6Edn3KujbaAgG7IL8GYltwaGkzVKIgyqxL%2BTuxA4mg%2BVP2Cw%2FQAGulukgS2FNxqbjVkBwKW8dRpdNFluO%2BFEUVvQV2c63Vf9CDUISLluf5AveUzNXZ4Us6SF6AI4WOLF1%2BAJ2cAzQ%3D%3D</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2023121492955305</v>
-      </c>
-      <c r="B4" t="str">
-        <v>25 มกราคม 2567 เวลา 03:42:32</v>
-      </c>
-      <c r="C4" t="str">
-        <v>14 ธันวาคม 2566</v>
-      </c>
-      <c r="D4" t="str">
-        <v>13:02:13</v>
-      </c>
-      <c r="E4" t="str">
-        <v>ภาณุพงศ์ ชัยวิรัตน์</v>
-      </c>
-      <c r="F4" t="str">
-        <v>นางสาว ทิพย์วารี ศรีเจริญตา</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v>https://storage.googleapis.com/test01-78b71.appspot.com/Images/image_492114070967943252.png?GoogleAccessId=firebase-adminsdk-yik6i%40test01-78b71.iam.gserviceaccount.com&amp;Expires=1893456000&amp;Signature=MeOMsK%2BCvhc7YtYWDbgM66lgORIa5Ridl9R7KF2ilnMyhp%2BL8kcHCRwas2yVM%2B8XDOynKK8DhY8TtVA6ToCrPNN7CniToT2xG%2BvrqUHFc4ySbjmN2axAIma4k5md9UHhrfQ1FsxzObFbZ%2Bug9lJkwjqpHcLNuom5wlwB%2FDXNldD1lufmjKiOCxKtt8rzsy%2FFeLxMkWCD1FIQXPvYMgvArESkpXe27vI42C%2Fs9o6bCjr8S8h4894wHRTsNiA1oBh7Wt5oSNJ6tCqYxTu9oh2w39%2BA3%2BWkoqqYa3CvnWQeHUG3GlmV5LZeOySf0pycQmUUDQS9QXvuMQQQ0mbGCxEO0Q%3D%3D</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2023122197672455</v>
-      </c>
-      <c r="B5" t="str">
-        <v>25 มกราคม 2567 เวลา 03:41:58</v>
-      </c>
-      <c r="C5" t="str">
-        <v>21 ธันวาคม 2566</v>
-      </c>
-      <c r="D5" t="str">
-        <v>16:44:45</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Phanuphong Chaiwirat</v>
-      </c>
-      <c r="F5" t="str">
-        <v>บริษัท 12โก (ไทยแลนด์) จำกัด</v>
-      </c>
-      <c r="G5">
-        <v>857.39</v>
-      </c>
-      <c r="H5" t="str">
-        <v>ชื่อผู้ส่งที่ได้รับเป็นภาษาอังกฤษจึงไม่ตรงกับสลิป</v>
-      </c>
-      <c r="I5" t="str">
-        <v>https://storage.googleapis.com/test01-78b71.appspot.com/Images/image_492114013153657282.png?GoogleAccessId=firebase-adminsdk-yik6i%40test01-78b71.iam.gserviceaccount.com&amp;Expires=1893456000&amp;Signature=oNq%2Fhryjcd5P1kpsNT3ESWD7DiogMo4cPaxJvZ%2F5O2J8SU89w3MCWpbqXbnpaUQKgdlHY5RegfW%2BXeDxOL3SlVrmkHKl9jL9AVcBJNKwBl7XqPQbcoBKUjBbGiG8tvi9SjVuFrFLIWgljeKDgWIZ1CVTO8AtCNPP1mtX2o3tld0utHrSla0dCkYCW7MPMrG%2F577f%2FJTK4jLnhODvGDn8pg3r%2BGjIDUjVDyYfB72Q6SpMXAR%2F%2F65qyBdat6xykg0L6rNZht85UlSDSU4mJDMhOxSFRlVq4MaIoMYvKmW2P0QpezRDQG%2BqjqgLhwwbj0Vvg4mx%2FXyIsJ07ki5VqrAXDw%3D%3D</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>2023122227206579</v>
-      </c>
-      <c r="B6" t="str">
-        <v>23 มกราคม 2567 เวลา 13:32:48</v>
-      </c>
-      <c r="C6" t="str">
-        <v>22 ธันวาคม 2566</v>
-      </c>
-      <c r="D6" t="str">
-        <v>19:23:44</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Phanuphong Chaiwirat</v>
-      </c>
-      <c r="F6" t="str">
-        <v>บริษัท 12โก (ไทยแลนด์) จำกัด</v>
-      </c>
-      <c r="G6">
-        <v>398.39</v>
-      </c>
-      <c r="H6" t="str">
-        <v>ชื่อผู้ส่งที่ได้รับเป็นภาษาอังกฤษจึงไม่ตรงกับสลิป</v>
-      </c>
-      <c r="I6" t="str">
-        <v>https://storage.googleapis.com/test01-78b71.appspot.com/Images/image_491841301805793479.png?GoogleAccessId=firebase-adminsdk-yik6i%40test01-78b71.iam.gserviceaccount.com&amp;Expires=1893430800&amp;Signature=ihg55Pi09kCjP1YLXKWb%2BEIJhNQAOOMRq%2Bw6lD5ro0aKk6%2BaFqJuH27I1w6btsyICHHBySAfL6FhnPpJACNpsTs4gaZIZlbC4z3u21MB7dR7zUhCQKrf%2FJK85DK0IxKqqBE2%2B0JVvzpwAp8OCktVGR5XXGeiD0YiGyX9D4%2FeKx6wosKW%2FyZHzJoc5UJs1PaOJv5w2ekSFr8laD%2FlUvgeVv%2BBPEdXp0nbMWpkQH8v%2FL68kzH7S%2FSoHcaweS7%2B1fiQV8v9pleDjcdchAgPxPJGrMYJGk71M2MmU9n1FaDSCFChTHelWtaxPFodZLpXsLxyfSzs07YE0fDZ5IXQ%2BvvBEQ%3D%3D</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>2023122347877168</v>
-      </c>
-      <c r="B7" t="str">
-        <v>23 มกราคม 2567 เวลา 13:32:57</v>
-      </c>
-      <c r="C7" t="str">
-        <v>23 ธันวาคม 2566</v>
-      </c>
-      <c r="D7" t="str">
-        <v>18:00:37</v>
-      </c>
-      <c r="E7" t="str">
-        <v>ภาณุพงศ์ ชัยวิรัตน์</v>
-      </c>
-      <c r="F7" t="str">
-        <v>นาย โตมร คำทอง</v>
-      </c>
-      <c r="G7">
-        <v>2000</v>
-      </c>
-      <c r="H7" t="str">
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <v>https://storage.googleapis.com/test01-78b71.appspot.com/Images/image_491841301068382708.png?GoogleAccessId=firebase-adminsdk-yik6i%40test01-78b71.iam.gserviceaccount.com&amp;Expires=1893430800&amp;Signature=eqxlQ0nbMBv9LFbG%2FY3edsZITkIvVqycKu1LwIjL7FxmPnRTDx7fzqow5LRQ3Qoxnz2uHJn8f746WFj9cYYym1c%2B7qgS%2FblmElJ6z00DHfuz2fSQEJvZ54mWBl9nVUkemmZTtcdwHVyWzdqywuPQrpj%2F6iPyP5XQ0FIcu%2BmdvpM5Mwm%2FSyndG6SJtu0ke%2FOejDMrXbSATlNX0t8NamLxbxI7K2gj29eWyWxusfGsO9m0jzBtI%2FQAKtOA6PVJKG79gXIrpi6zxUc0NIHkM9mViELGCkEGGneL9N%2FtfXfK4igdC6aBE41Zmulewr6srzm6wIDSkNFmvRp5dJ4dSVN8dQ%3D%3D</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,9 +442,67 @@
         <v>File URL</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2023122073977021</v>
+      </c>
+      <c r="B2" t="str">
+        <v>30 มกราคม 2567 เวลา 14:14:12</v>
+      </c>
+      <c r="C2" t="str">
+        <v>20 ธันวาคม 2566</v>
+      </c>
+      <c r="D2" t="str">
+        <v>17:53:31</v>
+      </c>
+      <c r="E2" t="str">
+        <v>นาย โตมร คำทอง</v>
+      </c>
+      <c r="F2" t="str">
+        <v>น.ส. กัญญา แซ่โง้ว</v>
+      </c>
+      <c r="G2">
+        <v>45</v>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v>https://storage.googleapis.com/test01-78b71.appspot.com/Images/image_492860151331029475.png?GoogleAccessId=firebase-adminsdk-yik6i%40test01-78b71.iam.gserviceaccount.com&amp;Expires=1893430800&amp;Signature=nbqaPZZ9Rh68ibHFOfrVohaE%2B1to6%2F%2F92GsXgCxuSwacSA%2FLWzDfFaY4Jg5sIzRUWjeVHgGyardb9RwynjlPHr3joZ90gPkcphOJGAdG6FqYgIbrn0c2KUev6Zjpdfxy7mRAyzuQQdbYr1TYlzc6RaGRXUASp%2BSr16q6rT1d7DsnEdrz0%2FYQw%2BUn9smMRWD8NU9abJKCN34NzNZP400HBiF5S%2BGHtEu6yhY%2FQHOAUaIkx9vuVDulS8bfC9MuvDTCKUgl9lXZauKCZv%2BzoSBGqF0gYosaaC8OpAHEHZ7Ed24CBHAl3yYcJ9Xoh2TUXNxbG3QUke5JDc8kTal691tg7g%3D%3D</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2023122227206579</v>
+      </c>
+      <c r="B3" t="str">
+        <v>31 มกราคม 2567 เวลา 12:09:09</v>
+      </c>
+      <c r="C3" t="str">
+        <v>22 ธันวาคม 2566</v>
+      </c>
+      <c r="D3" t="str">
+        <v>19:23:44</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Phanuphong Chaiwirat</v>
+      </c>
+      <c r="F3" t="str">
+        <v>บริษัท 12โก (ไทยแลนด์) จำกัด</v>
+      </c>
+      <c r="G3">
+        <v>398.39</v>
+      </c>
+      <c r="H3" t="str">
+        <v>ชื่อผู้ส่งที่ได้รับเป็นภาษาอังกฤษจึงไม่ตรงกับสลิป</v>
+      </c>
+      <c r="I3" t="str">
+        <v>https://storage.googleapis.com/test01-78b71.appspot.com/Images/image_492992507626651907.png?GoogleAccessId=firebase-adminsdk-yik6i%40test01-78b71.iam.gserviceaccount.com&amp;Expires=1893430800&amp;Signature=U5ZY%2FkzC9UzgVJD%2Fnbd8gvOGxnsrAWSFWl5ZntAy3sStir9TFSdjqzBtRTNxpEIBfWe47xmtQrABVaJTs4%2FzDb7U1rvdo1g4YEdiA1NMjWxSL39F0x7lvvUC%2BraGzc5MGEPJQCYGYsIfDMS%2BZWRJHjeWnIQZ4%2B7QG5xSK27Tz5ukFqz%2BfhmwqCN0kzRTUeRJAc%2BruMv7OJkxa%2FiSk5LArv%2FiJQVohj8nC0Us1M%2F1%2F3X1yGUD4VOJkQP44FLSLbaKJTc43ziQJJuFSEsw8gZ4XKz%2FYQAMhe%2B5SXsISXAXh5Zefr2k3Xt1GVkN5kSs0bQrCnDvOtedEu5JHzWKiwccJQ%3D%3D</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
   </ignoredErrors>
 </worksheet>
 </file>